--- a/Notebooks/numpy_and_pandas/pandas/data/sample.xlsx
+++ b/Notebooks/numpy_and_pandas/pandas/data/sample.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,60 +453,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Sofia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Maria, PhD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Plovdiv</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>Georgi, MD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chicago</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>David</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>32</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Houston</t>
+          <t>Varna</t>
         </is>
       </c>
     </row>
